--- a/q3/results/results_xgboost_2ap.xlsx
+++ b/q3/results/results_xgboost_2ap.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="feature_importances" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mse" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="r2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="best_params" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,31 +456,31 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.5854305028915405</v>
+        <v>1.27815568447113</v>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>mcs_nss_11_2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5015619993209839</v>
+        <v>1.106447577476501</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -487,63 +488,63 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_mean</t>
+          <t>eirp</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4905370771884918</v>
+        <v>-0.7874408960342407</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>ap_from_ap_mean_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.3971186280250549</v>
+        <v>0.7121576070785522</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mcs_nss_11_2</t>
+          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3964970707893372</v>
+        <v>-0.7119932174682617</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_le_nav_percent</t>
+          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.3591594099998474</v>
+        <v>-0.6818400621414185</v>
       </c>
       <c r="D7" t="n">
         <v>-1</v>
@@ -559,7 +560,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1791230738162994</v>
+        <v>-0.3159557282924652</v>
       </c>
       <c r="D8" t="n">
         <v>-1</v>
@@ -567,47 +568,47 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mcs_nss_7_1</t>
+          <t>sta_to_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1768365651369095</v>
+        <v>-0.3132798969745636</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_length</t>
+          <t>sta_to_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1435814946889877</v>
+        <v>0.2398631870746613</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_length</t>
+          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1286274939775467</v>
+        <v>-0.1991408616304398</v>
       </c>
       <c r="D11" t="n">
         <v>-1</v>
@@ -623,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.12077846378088</v>
+        <v>-0.1939716339111328</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +640,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1165361627936363</v>
+        <v>0.1498810797929764</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -647,15 +648,15 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1033852845430374</v>
+        <v>0.1232872605323792</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -663,63 +664,63 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_length</t>
+          <t>sta_to_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0823616236448288</v>
+        <v>0.1094883531332016</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.0795307457447052</v>
+        <v>0.0913165807723999</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_median</t>
+          <t>mcs_nss_4_2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.07829336076974869</v>
+        <v>-0.08940821141004562</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>protocol_tcp</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.06070869415998459</v>
+        <v>-0.08417856693267822</v>
       </c>
       <c r="D18" t="n">
         <v>-1</v>
@@ -727,15 +728,15 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>eirp</t>
+          <t>mcs_nss_7_1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.05271439626812935</v>
+        <v>0.08274121582508087</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -743,15 +744,15 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_length</t>
+          <t>sta_to_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0524851456284523</v>
+        <v>0.07236285507678986</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -759,31 +760,31 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_mean</t>
+          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05236061289906502</v>
+        <v>-0.06981070339679718</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_var</t>
+          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04958510771393776</v>
+        <v>0.06678728014230728</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -791,15 +792,15 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0457337498664856</v>
+        <v>0.06604155898094177</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -807,15 +808,15 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.04562529921531677</v>
+        <v>-0.05863126367330551</v>
       </c>
       <c r="D24" t="n">
         <v>-1</v>
@@ -823,15 +824,15 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.04374667629599571</v>
+        <v>-0.05804867297410965</v>
       </c>
       <c r="D25" t="n">
         <v>-1</v>
@@ -839,31 +840,31 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>ap_from_ap_max_rssi_mean</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.04215983673930168</v>
+        <v>-0.05635770410299301</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_skewness</t>
+          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.03956574946641922</v>
+        <v>0.0520210973918438</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -871,31 +872,31 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03670777752995491</v>
+        <v>-0.05178762227296829</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_length</t>
+          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.03413709253072739</v>
+        <v>-0.05146333575248718</v>
       </c>
       <c r="D29" t="n">
         <v>-1</v>
@@ -903,15 +904,15 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.03299969434738159</v>
+        <v>0.04891154915094376</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -919,31 +920,31 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03262101858854294</v>
+        <v>-0.04833358526229858</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mcs_nss_5_1</t>
+          <t>sta_to_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.03249324858188629</v>
+        <v>-0.04735045880079269</v>
       </c>
       <c r="D32" t="n">
         <v>-1</v>
@@ -951,63 +952,63 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>protocol_tcp</t>
+          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03237760066986084</v>
+        <v>0.04701202362775803</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
+          <t>mcs_nss_5_2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.02977308258414268</v>
+        <v>-0.04436032474040985</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02821678295731544</v>
+        <v>-0.04238690435886383</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02748267725110054</v>
+        <v>0.04222879558801651</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1015,47 +1016,47 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02724097296595573</v>
+        <v>-0.04179330915212631</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_min</t>
+          <t>sta_to_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.02681338787078857</v>
+        <v>0.04173115640878677</v>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_in_nav_ed_percent</t>
+          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.02526006102561951</v>
+        <v>-0.03866142779588699</v>
       </c>
       <c r="D39" t="n">
         <v>-1</v>
@@ -1063,15 +1064,15 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.02343164756894112</v>
+        <v>-0.03522616997361183</v>
       </c>
       <c r="D40" t="n">
         <v>-1</v>
@@ -1079,31 +1080,31 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mcs_nss_0_0</t>
+          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02328095771372318</v>
+        <v>-0.03451954573392868</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.02273479104042053</v>
+        <v>-0.03342439234256744</v>
       </c>
       <c r="D42" t="n">
         <v>-1</v>
@@ -1111,15 +1112,15 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_max</t>
+          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.02242735587060452</v>
+        <v>-0.03320739045739174</v>
       </c>
       <c r="D43" t="n">
         <v>-1</v>
@@ -1127,47 +1128,47 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_max_rssi_skewness</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.01851461827754974</v>
+        <v>0.03272878006100655</v>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.01844791695475578</v>
+        <v>0.03183301538228989</v>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_var</t>
+          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.01815718971192837</v>
+        <v>-0.03040808998048306</v>
       </c>
       <c r="D46" t="n">
         <v>-1</v>
@@ -1175,15 +1176,15 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mcs_nss_4_2</t>
+          <t>sta_to_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.01808124408125877</v>
+        <v>-0.02904453873634338</v>
       </c>
       <c r="D47" t="n">
         <v>-1</v>
@@ -1191,15 +1192,15 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_grouping_entropy</t>
+          <t>ap_from_ap_max_rssi_entropy</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0177331306040287</v>
+        <v>0.02854821085929871</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1207,15 +1208,15 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01654426008462906</v>
+        <v>0.02739986777305603</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1223,95 +1224,95 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01646983809769154</v>
+        <v>-0.02630352042615414</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.01635287329554558</v>
+        <v>0.02491716109216213</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.01621700450778008</v>
+        <v>0.02443542145192623</v>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01617564633488655</v>
+        <v>-0.02351832017302513</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0160420760512352</v>
+        <v>-0.02334411442279816</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.01568039320409298</v>
+        <v>-0.0229661762714386</v>
       </c>
       <c r="D55" t="n">
         <v>-1</v>
@@ -1319,15 +1320,15 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_min</t>
+          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.01563162915408611</v>
+        <v>-0.02198961935937405</v>
       </c>
       <c r="D56" t="n">
         <v>-1</v>
@@ -1335,15 +1336,15 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.01538769342005253</v>
+        <v>-0.02167896553874016</v>
       </c>
       <c r="D57" t="n">
         <v>-1</v>
@@ -1351,15 +1352,15 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_autocorrelation</t>
+          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01433144975453615</v>
+        <v>0.02116314508020878</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1367,47 +1368,47 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_iqr</t>
+          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01415641792118549</v>
+        <v>-0.02109413221478462</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_trend</t>
+          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.01413048524409533</v>
+        <v>0.02070880867540836</v>
       </c>
       <c r="D60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.0137110622599721</v>
+        <v>-0.02043063566088676</v>
       </c>
       <c r="D61" t="n">
         <v>-1</v>
@@ -1415,31 +1416,31 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_trend</t>
+          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.01337917428463697</v>
+        <v>0.01869294606149197</v>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.01331193186342716</v>
+        <v>0.01868200674653053</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1447,31 +1448,31 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_min</t>
+          <t>ap_from_ap_max_rssi_var</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.01282340567559004</v>
+        <v>0.01843380741775036</v>
       </c>
       <c r="D64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_kurtosis</t>
+          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.01250467449426651</v>
+        <v>-0.01756775379180908</v>
       </c>
       <c r="D65" t="n">
         <v>-1</v>
@@ -1479,15 +1480,15 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_length</t>
+          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.01217032037675381</v>
+        <v>0.01748503185808659</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1495,15 +1496,15 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_var</t>
+          <t>ap_from_ap_mean_rssi_skewness</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.01184127107262611</v>
+        <v>0.01747537031769753</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1511,15 +1512,15 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.01161528192460537</v>
+        <v>0.01718075387179852</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1527,31 +1528,31 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.01153841521590948</v>
+        <v>-0.01705595478415489</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.01131288148462772</v>
+        <v>-0.01643960364162922</v>
       </c>
       <c r="D70" t="n">
         <v>-1</v>
@@ -1559,15 +1560,15 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.01120256539434195</v>
+        <v>0.01620366796851158</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1575,15 +1576,15 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_mean</t>
+          <t>ap_from_ap_mean_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.01101709343492985</v>
+        <v>-0.01616903766989708</v>
       </c>
       <c r="D72" t="n">
         <v>-1</v>
@@ -1591,63 +1592,63 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.01092430762946606</v>
+        <v>-0.01597678288817406</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_var</t>
+          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0106064435094595</v>
+        <v>-0.01570165529847145</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mcs_nss_0_1</t>
+          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01054574176669121</v>
+        <v>-0.01451891660690308</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.01042366959154606</v>
+        <v>0.01438800245523453</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1655,15 +1656,15 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>ap_from_ap_mean_rssi_trend</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.01035862416028976</v>
+        <v>0.0141859007999301</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1671,15 +1672,15 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
+          <t>ap_from_ap_mean_rssi_mean</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.009849348105490208</v>
+        <v>-0.01414690352976322</v>
       </c>
       <c r="D78" t="n">
         <v>-1</v>
@@ -1687,15 +1688,15 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.009663300588726997</v>
+        <v>-0.01397949457168579</v>
       </c>
       <c r="D79" t="n">
         <v>-1</v>
@@ -1703,15 +1704,15 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_rate_of_change</t>
+          <t>mcs_nss_0_0</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.009324487298727036</v>
+        <v>0.01330910436809063</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1719,15 +1720,15 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.008926359005272388</v>
+        <v>-0.01239916123449802</v>
       </c>
       <c r="D81" t="n">
         <v>-1</v>
@@ -1735,18 +1736,18 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.008532231673598289</v>
+        <v>-0.01226439699530602</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -1759,23 +1760,23 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.008381946012377739</v>
+        <v>0.0121316434815526</v>
       </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_range</t>
+          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.008372252807021141</v>
+        <v>-0.01211581937968731</v>
       </c>
       <c r="D84" t="n">
         <v>-1</v>
@@ -1783,31 +1784,31 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0080255176872015</v>
+        <v>-0.011836894787848</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
+          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.007840516977012157</v>
+        <v>0.01113354321569204</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1815,63 +1816,63 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_min</t>
+          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.007753851823508739</v>
+        <v>-0.01102136820554733</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.007628676947206259</v>
+        <v>-0.01089333463460207</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_max</t>
+          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.007095942739397287</v>
+        <v>0.0105860847979784</v>
       </c>
       <c r="D89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_min</t>
+          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.006969909183681011</v>
+        <v>-0.01044135354459286</v>
       </c>
       <c r="D90" t="n">
         <v>-1</v>
@@ -1879,18 +1880,18 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.006874897982925177</v>
+        <v>0.0102150933817029</v>
       </c>
       <c r="D91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1904,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.006813340820372105</v>
+        <v>0.009591176174581051</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1911,31 +1912,31 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.006809554994106293</v>
+        <v>0.009232415817677975</v>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>ap_from_ap_mean_rssi_length</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.006681136786937714</v>
+        <v>-0.009218648076057434</v>
       </c>
       <c r="D94" t="n">
         <v>-1</v>
@@ -1943,111 +1944,111 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
+          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0066495924256742</v>
+        <v>-0.008998246863484383</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.006612976547330618</v>
+        <v>0.008878353983163834</v>
       </c>
       <c r="D96" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_max_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.006596489809453487</v>
+        <v>-0.008815351873636246</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>ap_from_ap_mean_rssi_entropy</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.006453671958297491</v>
+        <v>0.008505400270223618</v>
       </c>
       <c r="D98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
+          <t>ap_from_ap_max_rssi_min</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.006404189858585596</v>
+        <v>-0.00837105605751276</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_trend</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.006370240356773138</v>
+        <v>-0.007831284776329994</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_mean</t>
+          <t>ap_from_ap_mean_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-0.006297484040260315</v>
+        <v>-0.007804053835570812</v>
       </c>
       <c r="D101" t="n">
         <v>-1</v>
@@ -2055,31 +2056,31 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>mcs_nss_0_1</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.006178010255098343</v>
+        <v>0.007656020577996969</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.006096600089222193</v>
+        <v>0.007299506571143866</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2087,31 +2088,31 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.005986333824694157</v>
+        <v>0.007173452526330948</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.005672229919582605</v>
+        <v>0.006925949361175299</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2119,31 +2120,31 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
+          <t>ap_from_ap_max_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-0.005417884793132544</v>
+        <v>0.006726732011884451</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.005286515690386295</v>
+        <v>0.006662695668637753</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2151,15 +2152,15 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
+          <t>mcs_nss_5_1</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-0.005166215356439352</v>
+        <v>-0.006574218161404133</v>
       </c>
       <c r="D108" t="n">
         <v>-1</v>
@@ -2167,15 +2168,15 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.0051660374738276</v>
+        <v>-0.0064889220520854</v>
       </c>
       <c r="D109" t="n">
         <v>-1</v>
@@ -2183,31 +2184,31 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_min</t>
+          <t>mcs_nss_9_2</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.005040604155510664</v>
+        <v>0.006320909596979618</v>
       </c>
       <c r="D110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>ap_from_ap_mean_rssi_median</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.004958062432706356</v>
+        <v>-0.006254419684410095</v>
       </c>
       <c r="D111" t="n">
         <v>-1</v>
@@ -2215,31 +2216,31 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.004735980182886124</v>
+        <v>0.006234512198716402</v>
       </c>
       <c r="D112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_max</t>
+          <t>sta_from_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-0.004732068162411451</v>
+        <v>-0.006201449315994978</v>
       </c>
       <c r="D113" t="n">
         <v>-1</v>
@@ -2247,47 +2248,47 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_var</t>
+          <t>sta_from_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-0.004570271819829941</v>
+        <v>0.006187505088746548</v>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_range</t>
+          <t>sta_to_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-0.004556028638035059</v>
+        <v>0.006168907973915339</v>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
+          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.004418229218572378</v>
+        <v>-0.00602689990773797</v>
       </c>
       <c r="D116" t="n">
         <v>-1</v>
@@ -2295,15 +2296,15 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_range</t>
+          <t>mcs_nss_7_2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-0.003961955197155476</v>
+        <v>-0.005960091948509216</v>
       </c>
       <c r="D117" t="n">
         <v>-1</v>
@@ -2311,15 +2312,15 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_range</t>
+          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.00352589413523674</v>
+        <v>0.005765884649008512</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2327,15 +2328,15 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_median</t>
+          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.003306668950244784</v>
+        <v>0.005738194100558758</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2343,31 +2344,31 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.003299356205388904</v>
+        <v>0.005734808743000031</v>
       </c>
       <c r="D120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.00329498341307044</v>
+        <v>0.005548632703721523</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2375,47 +2376,47 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
+          <t>ap_from_ap_max_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.00322151998989284</v>
+        <v>-0.005493407137691975</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.003094066167250276</v>
+        <v>-0.005465841852128506</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.003028101054951549</v>
+        <v>-0.005301903001964092</v>
       </c>
       <c r="D124" t="n">
         <v>-1</v>
@@ -2423,15 +2424,15 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.00294200936332345</v>
+        <v>-0.005234831478446722</v>
       </c>
       <c r="D125" t="n">
         <v>-1</v>
@@ -2439,15 +2440,15 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
+          <t>mcs_nss_3_2</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-0.002752151340246201</v>
+        <v>-0.004844761453568935</v>
       </c>
       <c r="D126" t="n">
         <v>-1</v>
@@ -2455,15 +2456,15 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.002415851224213839</v>
+        <v>-0.004750733729451895</v>
       </c>
       <c r="D127" t="n">
         <v>-1</v>
@@ -2471,15 +2472,15 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_max</t>
+          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.002380540128797293</v>
+        <v>0.004495133645832539</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2487,79 +2488,79 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_var</t>
+          <t>sta_from_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.002254797611385584</v>
+        <v>-0.004353953991085291</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.002217367757111788</v>
+        <v>0.004331319127231836</v>
       </c>
       <c r="D130" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.002203147625550628</v>
+        <v>0.003779591294005513</v>
       </c>
       <c r="D131" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.002176032867282629</v>
+        <v>-0.003760217456147075</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_var</t>
+          <t>sta_to_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.002094200346618891</v>
+        <v>0.003679148852825165</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2567,31 +2568,31 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
+          <t>sta_to_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.002090626861900091</v>
+        <v>0.003540917532518506</v>
       </c>
       <c r="D134" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_trend</t>
+          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.002089389599859715</v>
+        <v>0.003521497594192624</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2599,63 +2600,63 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.002007205737754703</v>
+        <v>-0.003505978267639875</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.001988535979762673</v>
+        <v>-0.003285855054855347</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_max</t>
+          <t>ap_from_ap_max_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.001965048024430871</v>
+        <v>0.003155730664730072</v>
       </c>
       <c r="D138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.001893636537715793</v>
+        <v>-0.003140930784866214</v>
       </c>
       <c r="D139" t="n">
         <v>-1</v>
@@ -2663,15 +2664,15 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_max</t>
+          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.00185472029261291</v>
+        <v>-0.002999563701450825</v>
       </c>
       <c r="D140" t="n">
         <v>-1</v>
@@ -2679,31 +2680,31 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_autocorrelation</t>
+          <t>mcs_nss_6_2</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.001800096593797207</v>
+        <v>0.002987041603773832</v>
       </c>
       <c r="D141" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>ap_from_ap_max_rssi_median</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.001740578911267221</v>
+        <v>0.002983430167660117</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2711,15 +2712,15 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-0.001718647545203567</v>
+        <v>-0.002888424089178443</v>
       </c>
       <c r="D143" t="n">
         <v>-1</v>
@@ -2727,31 +2728,31 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_1_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.001665422925725579</v>
+        <v>-0.002814673352986574</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.001601017662324011</v>
+        <v>0.002783848438411951</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2759,15 +2760,15 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_trend</t>
+          <t>sta_to_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.001578305615112185</v>
+        <v>-0.002761088777333498</v>
       </c>
       <c r="D146" t="n">
         <v>-1</v>
@@ -2775,111 +2776,111 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-0.001494530355557799</v>
+        <v>0.002745479112491012</v>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-0.001465912209823728</v>
+        <v>0.002744957804679871</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_max_rssi_range</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.001464441069401801</v>
+        <v>-0.002561487490311265</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>mcs_nss_5_2</t>
+          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-0.001460491097532213</v>
+        <v>0.00255619315430522</v>
       </c>
       <c r="D150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.001413877471350133</v>
+        <v>-0.002395575866103172</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_min</t>
+          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-0.001376360654830933</v>
+        <v>0.002380830934271216</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
+          <t>ap_from_ap_max_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.001326808356679976</v>
+        <v>-0.002370371948927641</v>
       </c>
       <c r="D153" t="n">
         <v>-1</v>
@@ -2887,15 +2888,15 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_max</t>
+          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.00127945258282125</v>
+        <v>-0.002285465598106384</v>
       </c>
       <c r="D154" t="n">
         <v>-1</v>
@@ -2903,63 +2904,63 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_range</t>
+          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.001208946923725307</v>
+        <v>0.002266291994601488</v>
       </c>
       <c r="D155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_trend</t>
+          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.001204496249556541</v>
+        <v>0.002140974160283804</v>
       </c>
       <c r="D156" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
+          <t>mcs_nss_4_1</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-0.001195720862597227</v>
+        <v>0.002134434645995498</v>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.001191803603433073</v>
+        <v>0.00212582852691412</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2967,47 +2968,47 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.00116547744255513</v>
+        <v>0.002034966135397553</v>
       </c>
       <c r="D159" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>ap_from_ap_mean_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-0.001110953860916197</v>
+        <v>0.001888247905299067</v>
       </c>
       <c r="D160" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mcs_nss_3_2</t>
+          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-0.001107160816900432</v>
+        <v>-0.001868453808128834</v>
       </c>
       <c r="D161" t="n">
         <v>-1</v>
@@ -3015,15 +3016,15 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_max_rssi_iqr</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-0.0009999771136790514</v>
+        <v>-0.001729371026158333</v>
       </c>
       <c r="D162" t="n">
         <v>-1</v>
@@ -3031,15 +3032,15 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_iqr</t>
+          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.000886626890860498</v>
+        <v>0.001676687970757484</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3047,31 +3048,31 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
+          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-0.0007921550422906876</v>
+        <v>0.001539288088679314</v>
       </c>
       <c r="D164" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.0006698359502479434</v>
+        <v>0.001531274057924747</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3079,47 +3080,47 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>ap_from_ap_mean_rssi_range</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-0.0006619723280891776</v>
+        <v>0.00140787148848176</v>
       </c>
       <c r="D166" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-0.0006519520538859069</v>
+        <v>0.001376527477987111</v>
       </c>
       <c r="D167" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
+          <t>ap_from_ap_max_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.0006317219813354313</v>
+        <v>0.001354643143713474</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -3127,15 +3128,15 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_min</t>
+          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.0005868634907528758</v>
+        <v>0.001322714379057288</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3143,31 +3144,31 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.0004865031223744154</v>
+        <v>-0.001278898329474032</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_mean_rssi_min</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.0004640971892513335</v>
+        <v>0.001274052774533629</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -3175,15 +3176,15 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.0004522079543676227</v>
+        <v>0.001250215922482312</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -3191,31 +3192,31 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.0004339292645454407</v>
+        <v>-0.001242616795934737</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.000404800841351971</v>
+        <v>0.001112455734983087</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -3223,31 +3224,31 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>ap_from_ap_mean_rssi_max</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.0003972800332121551</v>
+        <v>-0.001076480140909553</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_max</t>
+          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-0.0003128128009848297</v>
+        <v>-0.001049777725711465</v>
       </c>
       <c r="D176" t="n">
         <v>-1</v>
@@ -3255,15 +3256,15 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_mean_rssi_var</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.0002853275218512863</v>
+        <v>0.0009076943388208747</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -3271,15 +3272,15 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_max_rssi_max</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-0.0002846122661139816</v>
+        <v>-0.000903902284335345</v>
       </c>
       <c r="D178" t="n">
         <v>-1</v>
@@ -3287,79 +3288,79 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.00025895144790411</v>
+        <v>-0.0008972326177172363</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>-0.0002298696635989472</v>
+        <v>0.0008927907911129296</v>
       </c>
       <c r="D180" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.0001984152913792059</v>
+        <v>-0.0008648300427012146</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.0001565562561154366</v>
+        <v>-0.000823108188342303</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.0001323469041381031</v>
+        <v>0.0008049545576795936</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -3367,15 +3368,15 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-0.0001054072781698778</v>
+        <v>-0.0006800604169256985</v>
       </c>
       <c r="D184" t="n">
         <v>-1</v>
@@ -3383,539 +3384,539 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_var</t>
+          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-9.565255459165201e-05</v>
+        <v>0.0006661723018623888</v>
       </c>
       <c r="D185" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4.550609810394235e-05</v>
+        <v>-0.0006463202880695462</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>mcs_nss_9_2</t>
+          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.0006063788896426558</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_median</t>
+          <t>ap_from_ap_max_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.0005876045324839652</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.0005323275690898299</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_median</t>
+          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.0004020788182970136</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>-0.0003989137767348439</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>mcs_nss_6_1</t>
+          <t>ap_from_ap_max_rssi_length</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-0.0003786777961067855</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>-0.0003768590104300529</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>mcs_nss_6_2</t>
+          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.0003678645589388907</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_max</t>
+          <t>sta_from_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-0.0003440487780608237</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_length</t>
+          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-0.0003337017842568457</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>ap_from_ap_mean_rssi_iqr</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.0003206791880074888</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>mcs_nss_6_1</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>-0.0003067835350520909</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-0.0002672145492397249</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_range</t>
+          <t>sta_to_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>-0.0002515423111617565</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_median</t>
+          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.0002265587390866131</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_range</t>
+          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>0.0002160559233743697</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>mcs_nss_8_2</t>
+          <t>sta_from_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>-0.0001988807925954461</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>mcs_nss_7_2</t>
+          <t>sta_from_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.0001875441230367869</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>mcs_nss_10_2</t>
+          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>0.0001588527957210317</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>protocol_udp</t>
+          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.0001285010075662285</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>bss_id</t>
+          <t>sta_to_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-0.0001264049933524802</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-0.0001247039181180298</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>mcs_nss_4_1</t>
+          <t>mcs_nss_8_2</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>0.0001040276038111188</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_min</t>
+          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>-7.23037519492209e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_length</t>
+          <t>sta_from_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>6.938322621863335e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_mean</t>
+          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>4.923000233247876e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>4.166806320426986e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_iqr</t>
+          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>3.534110874170437e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_length</t>
+          <t>mcs_nss_10_2</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>2.779273745545652e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_to_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>-2.108734770445153e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>-2.947752477666654e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_range</t>
+          <t>sta_from_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3927,11 +3928,11 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_min</t>
+          <t>bss_id</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3943,11 +3944,11 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>protocol_udp</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3959,11 +3960,11 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_range</t>
+          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3975,11 +3976,11 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_median</t>
+          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3991,11 +3992,11 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_max</t>
+          <t>sta_from_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -4007,11 +4008,11 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -4023,11 +4024,11 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -4039,11 +4040,11 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -4055,11 +4056,11 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_median</t>
+          <t>sta_from_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -4071,11 +4072,11 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -4126,267 +4127,267 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2033473700284958</v>
+        <v>0.4611993432044983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_to_ap_1_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.129069060087204</v>
+        <v>0.1951624304056168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.09393423050642014</v>
+        <v>0.06044318899512291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08684951812028885</v>
+        <v>0.04037044942378998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_mean</t>
+          <t>mcs_nss_11_2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.07817654311656952</v>
+        <v>0.03712078556418419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04619761556386948</v>
+        <v>0.0337139293551445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_median</t>
+          <t>ap_from_ap_mean_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03698736056685448</v>
+        <v>0.02556229569017887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sinr</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.03596986457705498</v>
+        <v>0.01679046824574471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sinr</t>
+          <t>sta_to_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03567294403910637</v>
+        <v>0.01575732603669167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_le_nav_percent</t>
+          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02925028465688229</v>
+        <v>0.008407854475080967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_mean</t>
+          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02796969376504421</v>
+        <v>0.007508271373808384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mcs_nss_11_2</t>
+          <t>sta_to_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01580120250582695</v>
+        <v>0.007320062257349491</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_max_rssi_var</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01355431601405144</v>
+        <v>0.007089369930326939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01258319430053234</v>
+        <v>0.006109257228672504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01159260794520378</v>
+        <v>0.004365021828562021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01068776287138462</v>
+        <v>0.004237095825374126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.009060659445822239</v>
+        <v>0.003915328066796064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_var</t>
+          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008263962343335152</v>
+        <v>0.003855229821056128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_median</t>
+          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.007974172942340374</v>
+        <v>0.003654980100691319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.007234652061015368</v>
+        <v>0.003604101482778788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.007213203702121973</v>
+        <v>0.002973206341266632</v>
       </c>
     </row>
     <row r="23">
@@ -4399,215 +4400,215 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.005381790455430746</v>
+        <v>0.002852822653949261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_max</t>
+          <t>sta_to_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.005331683903932571</v>
+        <v>0.00220580049790442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>ap_from_ap_max_rssi_skewness</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.005177452694624662</v>
+        <v>0.00168656965252012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_max_rssi_mean</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.004214631393551826</v>
+        <v>0.00163596763741225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_mean</t>
+          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.003395872190594673</v>
+        <v>0.001409157877787948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.003386390162631869</v>
+        <v>0.001209753798320889</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_in_nav_ed_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.003366040531545877</v>
+        <v>0.001200276426970959</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
+          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.002796439686790109</v>
+        <v>0.001168534043245018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.002637407742440701</v>
+        <v>0.001167314476333559</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_range</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002187284408137202</v>
+        <v>0.001163692679256201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>protocol_tcp</t>
+          <t>sta_to_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.002038850681856275</v>
+        <v>0.001042997348122299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.001805261825211346</v>
+        <v>0.001023235497996211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_length</t>
+          <t>ap_from_ap_mean_rssi_trend</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00177053886000067</v>
+        <v>0.001008851802907884</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eirp</t>
+          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00168419221881777</v>
+        <v>0.0009621846256777644</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>mcs_nss_5_2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.001676116371527314</v>
+        <v>0.0009534376440569758</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_max</t>
+          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001636871253140271</v>
+        <v>0.0008874661289155483</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001624547294341028</v>
+        <v>0.0008570329518988729</v>
       </c>
     </row>
     <row r="40">
@@ -4620,826 +4621,826 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.001597364316694438</v>
+        <v>0.0008361278451047838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.001485564978793263</v>
+        <v>0.0008304592338390648</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.001462555374018848</v>
+        <v>0.0008115810342133045</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.001346277305856347</v>
+        <v>0.000803208036813885</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00129815679974854</v>
+        <v>0.0007913609151728451</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_max_rssi_min</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.001173106953501701</v>
+        <v>0.0006700920057483017</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_max_rssi_median</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.001147373579442501</v>
+        <v>0.0006555765285156667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_skewness</t>
+          <t>sta_to_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.001146416179835796</v>
+        <v>0.000625508138909936</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_rate_of_change</t>
+          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.001140452106483281</v>
+        <v>0.0005750841228291392</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.00113247090484947</v>
+        <v>0.0005669690435752273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_entropy</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001040819101035595</v>
+        <v>0.0005571460351347923</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_var</t>
+          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0009904993930831552</v>
+        <v>0.0005391694139689207</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0009810023475438356</v>
+        <v>0.0005292754503898323</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0009193992591463029</v>
+        <v>0.0004880185006186366</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0009078153525479138</v>
+        <v>0.000486943288706243</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0008757909527048469</v>
+        <v>0.0004713667440228164</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_length</t>
+          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.000805600720923394</v>
+        <v>0.0004576038336381316</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>protocol_tcp</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.000763246847782284</v>
+        <v>0.0004420657351147383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0007334966212511063</v>
+        <v>0.0004293769598007202</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_min</t>
+          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0007130720186978579</v>
+        <v>0.0004226790915708989</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0006900440785102546</v>
+        <v>0.0004183601122349501</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0006674093892797828</v>
+        <v>0.0004155629721935838</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0006236310000531375</v>
+        <v>0.0004138953518122435</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0006119008176028728</v>
+        <v>0.0003947325749322772</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0006106154760345817</v>
+        <v>0.0003837554540950805</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0006011879304423928</v>
+        <v>0.0003781137056648731</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
+          <t>eirp</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0005875482456758618</v>
+        <v>0.0003711867902893573</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0005852508475072682</v>
+        <v>0.0003676181950140744</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_range</t>
+          <t>sta_from_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0005599318537861109</v>
+        <v>0.0003491016395855695</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_mean_rssi_range</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0005412346217781305</v>
+        <v>0.0003436346305534244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0005017640069127083</v>
+        <v>0.0003408956108614802</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0004796214052475989</v>
+        <v>0.0003244045365136117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0004645203007385135</v>
+        <v>0.0003240373916924</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0004621946718543768</v>
+        <v>0.000323576619848609</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0004372003895696253</v>
+        <v>0.0003188674163538963</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.0004239950503688306</v>
+        <v>0.0003057555004488677</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0004207969759590924</v>
+        <v>0.0002969103516079485</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_max_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0004196525551378727</v>
+        <v>0.0002957294054795057</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_trend</t>
+          <t>ap_from_ap_mean_rssi_skewness</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0004131014575250447</v>
+        <v>0.0002793372550513595</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>ap_from_ap_mean_rssi_entropy</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0003931847750209272</v>
+        <v>0.0002709093096200377</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0003698028740473092</v>
+        <v>0.0002692909620236605</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_kurtosis</t>
+          <t>sta_from_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.000367983739124611</v>
+        <v>0.0002522353024687618</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0003662926028482616</v>
+        <v>0.0002412205358268693</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_min</t>
+          <t>ap_from_ap_max_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0003236150369048119</v>
+        <v>0.0002393168397247791</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0003116936713922769</v>
+        <v>0.0002290003903908655</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>mcs_nss_4_2</t>
+          <t>sta_to_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0003111021651420742</v>
+        <v>0.0002254805440315977</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0002965182648040354</v>
+        <v>0.0002208766527473927</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_length</t>
+          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0002964166342280805</v>
+        <v>0.0002176064881496131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0002773792948573828</v>
+        <v>0.0002125635219272226</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
+          <t>mcs_nss_0_0</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.0002770353166852146</v>
+        <v>0.0002124208695022389</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.000275771162705496</v>
+        <v>0.0002103481092490256</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0002626128552947193</v>
+        <v>0.0002041051047854125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
+          <t>ap_from_ap_mean_rssi_length</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0002565993054304272</v>
+        <v>0.0001982878748094663</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>mcs_nss_0_0</t>
+          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0002517249085940421</v>
+        <v>0.0001980284723686054</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.000250457669608295</v>
+        <v>0.0001957035710802302</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_min</t>
+          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0002476487134117633</v>
+        <v>0.000192057472304441</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mcs_nss_3_2</t>
+          <t>mcs_nss_4_2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0002470040635671467</v>
+        <v>0.0001823503262130544</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.000234817314776592</v>
+        <v>0.000181057897862047</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0002280419430462644</v>
+        <v>0.0001702623267192394</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0002149700449081138</v>
+        <v>0.0001686986506683752</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0002135532849933952</v>
+        <v>0.0001656546810409054</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0002056670346064493</v>
+        <v>0.0001648555771680549</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_trend</t>
+          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0002022043918259442</v>
+        <v>0.0001622768759261817</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0001924832758959383</v>
+        <v>0.0001600391115061939</v>
       </c>
     </row>
     <row r="104">
@@ -5452,1264 +5453,1264 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0001920710783451796</v>
+        <v>0.0001548285654280335</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0001872715802164748</v>
+        <v>0.000145964149851352</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0001850020926212892</v>
+        <v>0.0001398721215082332</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_var</t>
+          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.0001843586942413822</v>
+        <v>0.000129544991068542</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0001816859003156424</v>
+        <v>0.0001270851498702541</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_kurtosis</t>
+          <t>sta_to_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.000177316353074275</v>
+        <v>0.0001248430053237826</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0001700909488135949</v>
+        <v>0.0001221690326929092</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_range</t>
+          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0001648128672968596</v>
+        <v>0.000119141855975613</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mcs_nss_0_1</t>
+          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0001584415877005085</v>
+        <v>0.0001162140542874113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_min</t>
+          <t>ap_from_ap_max_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0001580757088959217</v>
+        <v>0.000115911170723848</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0001551727036712691</v>
+        <v>0.0001131849785451777</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_length</t>
+          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.0001548837899463251</v>
+        <v>0.0001130358941736631</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0001486091350670904</v>
+        <v>0.0001113433463615365</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_trend</t>
+          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0001465213135816157</v>
+        <v>0.0001098949578590691</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_range</t>
+          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0001457237813156098</v>
+        <v>0.0001045313038048334</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.000140204094350338</v>
+        <v>0.0001019012343022041</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>mcs_nss_7_2</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0001396972947986796</v>
+        <v>0.0001014582594507374</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_grouping_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.000137566530611366</v>
+        <v>9.958689042832702e-05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.0001321437302976847</v>
+        <v>9.903041791403666e-05</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.0001292741217184812</v>
+        <v>9.300906822318211e-05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_max</t>
+          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.000115953545900993</v>
+        <v>8.99595397640951e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.00011378490307834</v>
+        <v>8.907636947697029e-05</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_length</t>
+          <t>sta_to_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0001009828774840571</v>
+        <v>8.88841605046764e-05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
+          <t>ap_from_ap_mean_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9.486589260632172e-05</v>
+        <v>8.628422801848501e-05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8.76018384587951e-05</v>
+        <v>8.104761218419299e-05</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.296135688899085e-05</v>
+        <v>8.101590356091037e-05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4.548145443550311e-05</v>
+        <v>7.727730553597212e-05</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>sta_to_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4.117521530133672e-05</v>
+        <v>6.932131509529427e-05</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>mcs_nss_5_1</t>
+          <t>sta_to_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.011434324027505e-05</v>
+        <v>6.893451063660905e-05</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_max</t>
+          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>6.582231435459107e-05</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>6.426635809475556e-05</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>6.014900282025337e-05</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>ap_from_ap_mean_rssi_var</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>5.717451495002024e-05</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>5.669046004186384e-05</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>5.491027695825323e-05</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_range</t>
+          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>5.452719415188767e-05</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>mcs_nss_9_2</t>
+          <t>sta_to_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>5.267078449833207e-05</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>mcs_nss_10_2</t>
+          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>5.07661716255825e-05</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_iqr</t>
+          <t>mcs_nss_0_1</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>4.761399031849578e-05</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>4.668390101869591e-05</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>4.626176450983621e-05</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>mcs_nss_7_2</t>
+          <t>sta_to_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>4.489794810069725e-05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_max</t>
+          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>4.388962770462967e-05</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_length</t>
+          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>4.352452742750756e-05</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_la_ed_percent</t>
+          <t>ap_from_ap_mean_rssi_max</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>4.318780338508077e-05</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>4.224391159368679e-05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>3.561238554539159e-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>mcs_nss_7_1</t>
+          <t>sta_to_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>3.507188375806436e-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>ap_from_ap_max_rssi_max</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>3.366758392076008e-05</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mcs_nss_6_2</t>
+          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>3.301196193206124e-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>mcs_nss_6_1</t>
+          <t>sta_to_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>3.273269612691365e-05</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>mcs_nss_5_2</t>
+          <t>ap_from_ap_mean_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>2.949745794467162e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_var</t>
+          <t>sta_from_ap_1_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>2.691998088266701e-05</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_length</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>2.671963011380285e-05</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_range</t>
+          <t>mcs_nss_3_2</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>2.55486538662808e-05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_min</t>
+          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2.531686914153397e-05</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_var</t>
+          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>2.511286038497929e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>2.490848964953329e-05</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
+          <t>ap_from_ap_mean_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>2.195277374994475e-05</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_max</t>
+          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2.049074100796133e-05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1.951074591488577e-05</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1.932154555106536e-05</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1.921345574373845e-05</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_skewness</t>
+          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1.906078250613064e-05</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>ap_from_ap_max_rssi_trend</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1.516808697488159e-05</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_var</t>
+          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1.476988200010965e-05</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_mean</t>
+          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1.46946558743366e-05</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1.354689811705612e-05</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_range</t>
+          <t>sta_to_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1.293979858019156e-05</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_max</t>
+          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1.133389014285058e-05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_min</t>
+          <t>ap_from_ap_mean_rssi_min</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1.120956494560232e-05</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_length</t>
+          <t>mcs_nss_5_1</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1.120004162658006e-05</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>mcs_nss_6_2</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1.05518474811106e-05</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>9.355392649013083e-06</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>9.196243809128646e-06</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>8.933076060202438e-06</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>8.468478881695773e-06</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>8.13946553535061e-06</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>7.028220807114849e-06</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_var</t>
+          <t>mcs_nss_6_1</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>5.430772489489755e-06</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>3.939587713830406e-06</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>3.394891336938599e-06</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>mcs_nss_8_2</t>
+          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>3.231741629861062e-06</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>2.667451553861611e-06</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_range</t>
+          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>2.647194150995347e-06</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_median</t>
+          <t>ap_from_ap_max_rssi_iqr</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2.381045987931429e-06</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_min</t>
+          <t>sta_to_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>2.053120624623261e-06</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_max</t>
+          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>2.023231445491547e-06</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1.614561142559978e-06</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>protocol_udp</t>
+          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1.471604264224879e-06</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>bss_id</t>
+          <t>mcs_nss_8_2</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1.214476924360497e-06</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>8.606023129686946e-07</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_var</t>
+          <t>sta_from_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>6.678620820821379e-07</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>mcs_nss_4_1</t>
+          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>6.252340654100408e-07</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_min</t>
+          <t>mcs_nss_10_2</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>5.175482442609791e-07</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>4.884540203420329e-07</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>7.472009677655933e-09</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_var</t>
+          <t>bss_id</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -6718,11 +6719,11 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
+          <t>mcs_nss_7_1</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -6731,11 +6732,11 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -6744,11 +6745,11 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_median</t>
+          <t>protocol_udp</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -6757,11 +6758,11 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_min</t>
+          <t>mcs_nss_4_1</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -6770,11 +6771,11 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_max</t>
+          <t>sta_from_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -6783,11 +6784,11 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -6796,11 +6797,11 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -6809,11 +6810,11 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -6822,11 +6823,11 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>ap_from_ap_max_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -6835,11 +6836,11 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_trend</t>
+          <t>sta_from_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -6848,11 +6849,11 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -6861,11 +6862,11 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -6874,11 +6875,11 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_median</t>
+          <t>sta_from_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -6887,11 +6888,11 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -6900,11 +6901,11 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -6913,11 +6914,11 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -6926,11 +6927,11 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -6939,11 +6940,11 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -6952,11 +6953,11 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_median</t>
+          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -6965,11 +6966,11 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_min</t>
+          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -6978,11 +6979,11 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_max</t>
+          <t>sta_from_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -6991,11 +6992,11 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -7004,11 +7005,11 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_var</t>
+          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -7017,11 +7018,11 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_mean</t>
+          <t>ap_from_ap_mean_rssi_iqr</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -7030,11 +7031,11 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -7043,11 +7044,11 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_range</t>
+          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -7056,11 +7057,11 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
+          <t>mcs_nss_9_2</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -7103,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31.97971136952882</v>
+        <v>0.01246245014233332</v>
       </c>
       <c r="C2" t="n">
-        <v>265.0113436150822</v>
+        <v>246.2424587125628</v>
       </c>
     </row>
     <row r="3">
@@ -7114,10 +7115,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.38638852857926</v>
+        <v>0.04634662446820132</v>
       </c>
       <c r="C3" t="n">
-        <v>188.8456303865701</v>
+        <v>269.9965963508369</v>
       </c>
     </row>
     <row r="4">
@@ -7125,10 +7126,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42.77703684815657</v>
+        <v>0.02751190263062323</v>
       </c>
       <c r="C4" t="n">
-        <v>132.1459678030318</v>
+        <v>175.5066654100814</v>
       </c>
     </row>
     <row r="5">
@@ -7136,10 +7137,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.93150591214949</v>
+        <v>0.005131878736568073</v>
       </c>
       <c r="C5" t="n">
-        <v>293.9924203392146</v>
+        <v>298.6446060606418</v>
       </c>
     </row>
     <row r="6">
@@ -7147,10 +7148,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.37553824119215</v>
+        <v>0.01044408163363988</v>
       </c>
       <c r="C6" t="n">
-        <v>336.9092986870969</v>
+        <v>292.490104662638</v>
       </c>
     </row>
   </sheetData>
@@ -7189,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9905447099035004</v>
+        <v>0.9999963152862749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9366349063971994</v>
+        <v>0.9411226091968038</v>
       </c>
     </row>
     <row r="3">
@@ -7200,10 +7201,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9890005637398387</v>
+        <v>0.9999873772634721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9378410458839526</v>
+        <v>0.9111300271565396</v>
       </c>
     </row>
     <row r="4">
@@ -7211,10 +7212,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9884706317949279</v>
+        <v>0.9999925849268948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9522564271715737</v>
+        <v>0.936590458254692</v>
       </c>
     </row>
     <row r="5">
@@ -7222,10 +7223,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9907544723768021</v>
+        <v>0.9999985141030696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9235501572416979</v>
+        <v>0.9223404020157803</v>
       </c>
     </row>
     <row r="6">
@@ -7233,10 +7234,118 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9893106487817971</v>
+        <v>0.9999970130073843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9098163589766463</v>
+        <v>0.9217064571842619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Search List</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>reg:squarederror</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>reg:squarederror</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[50, 100, 200]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[None, 10, 20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.01, 0.1, 0.2]</t>
+        </is>
       </c>
     </row>
   </sheetData>
